--- a/data/trans_orig/P70B_R_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>345058</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>331890</v>
+        <v>331888</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>355387</v>
+        <v>355131</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9252734839574784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8899649178526658</v>
+        <v>0.8899600883691915</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9529724944637972</v>
+        <v>0.9522856893591672</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>399</v>
@@ -762,19 +762,19 @@
         <v>298191</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>287508</v>
+        <v>286328</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>307391</v>
+        <v>307138</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8944388101081354</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8623965524214914</v>
+        <v>0.8588572464851241</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.922035348628512</v>
+        <v>0.9212776303597427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>702</v>
@@ -783,19 +783,19 @@
         <v>643248</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>626145</v>
+        <v>626782</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>656701</v>
+        <v>657582</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9107192621672076</v>
+        <v>0.9107192621672077</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.886503605223275</v>
+        <v>0.8874062974620726</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9297662251779196</v>
+        <v>0.9310129543463381</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>27867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17538</v>
+        <v>17794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41035</v>
+        <v>41037</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0747265160425216</v>
+        <v>0.07472651604252162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04702750553620296</v>
+        <v>0.04771431064083319</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1100350821473341</v>
+        <v>0.1100399116308085</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -833,19 +833,19 @@
         <v>35192</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25992</v>
+        <v>26245</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45875</v>
+        <v>47055</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1055611898918644</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07796465137148803</v>
+        <v>0.07872236964025718</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1376034475785088</v>
+        <v>0.141142753514876</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -854,19 +854,19 @@
         <v>63060</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49607</v>
+        <v>48726</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80163</v>
+        <v>79526</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08928073783279247</v>
+        <v>0.08928073783279249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0702337748220804</v>
+        <v>0.0689870456536619</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1134963947767251</v>
+        <v>0.1125937025379273</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>277599</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>261117</v>
+        <v>262510</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>289301</v>
+        <v>289174</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8752177306105134</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8232533718324165</v>
+        <v>0.827646499466112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9121124807202353</v>
+        <v>0.9117116683538918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>324</v>
@@ -979,19 +979,19 @@
         <v>244627</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235319</v>
+        <v>234762</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>252612</v>
+        <v>252428</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9021981784623996</v>
+        <v>0.9021981784623995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.867867711206139</v>
+        <v>0.8658124888723536</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9316446565712834</v>
+        <v>0.930968039556936</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>563</v>
@@ -1000,19 +1000,19 @@
         <v>522226</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>503648</v>
+        <v>506056</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>537440</v>
+        <v>538155</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.887652485413099</v>
+        <v>0.8876524854130992</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8560738430745159</v>
+        <v>0.8601674355813527</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.913511342043885</v>
+        <v>0.914727756095907</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>39578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27876</v>
+        <v>28003</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56060</v>
+        <v>54667</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1247822693894863</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08788751927976457</v>
+        <v>0.08828833164610811</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1767466281675835</v>
+        <v>0.1723535005338881</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -1050,19 +1050,19 @@
         <v>26519</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18534</v>
+        <v>18718</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35827</v>
+        <v>36384</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09780182153760048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06835534342871667</v>
+        <v>0.06903196044306417</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1321322887938609</v>
+        <v>0.1341875111276463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>68</v>
@@ -1071,19 +1071,19 @@
         <v>66097</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>50883</v>
+        <v>50168</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>84675</v>
+        <v>82267</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1123475145869008</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0864886579561148</v>
+        <v>0.08527224390409296</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.143926156925484</v>
+        <v>0.1398325644186473</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>227036</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>212124</v>
+        <v>212414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>238162</v>
+        <v>237428</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8515358167713996</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7956036497788378</v>
+        <v>0.7966936700194404</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8932630263270047</v>
+        <v>0.8905110223996787</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -1196,19 +1196,19 @@
         <v>65414</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57969</v>
+        <v>58666</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70769</v>
+        <v>71225</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.807959150583769</v>
+        <v>0.8079591505837693</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.716005556936671</v>
+        <v>0.7246117599382167</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.874106644345782</v>
+        <v>0.8797304851221402</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>291</v>
@@ -1217,19 +1217,19 @@
         <v>292450</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>276649</v>
+        <v>277239</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304465</v>
+        <v>305859</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8413855329182947</v>
+        <v>0.8413855329182945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7959237433988673</v>
+        <v>0.7976218224828756</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8759517143672337</v>
+        <v>0.8799630694038525</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>39584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28458</v>
+        <v>29192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54496</v>
+        <v>54206</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1484641832286004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1067369736729953</v>
+        <v>0.1094889776003217</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2043963502211623</v>
+        <v>0.2033063299805604</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -1267,19 +1267,19 @@
         <v>15548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10193</v>
+        <v>9737</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22993</v>
+        <v>22296</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1920408494162309</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1258933556542173</v>
+        <v>0.1202695148778598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2839944430633289</v>
+        <v>0.2753882400617835</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -1288,19 +1288,19 @@
         <v>55132</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43117</v>
+        <v>41723</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>70933</v>
+        <v>70343</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1586144670817055</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1240482856327664</v>
+        <v>0.1200369305961474</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2040762566011325</v>
+        <v>0.2023781775171246</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>485283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>458470</v>
+        <v>458534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>506964</v>
+        <v>507870</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7900834046545796</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7464293199308625</v>
+        <v>0.746532221227612</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8253808330842121</v>
+        <v>0.8268564911076213</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>503</v>
@@ -1413,19 +1413,19 @@
         <v>379505</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>364529</v>
+        <v>364323</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>394369</v>
+        <v>394827</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8019621029106667</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7703153422316591</v>
+        <v>0.7698788011721953</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8333707897897417</v>
+        <v>0.8343399347104981</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>931</v>
@@ -1434,19 +1434,19 @@
         <v>864788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>833166</v>
+        <v>835241</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>890205</v>
+        <v>892615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7952526606109515</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7661732846700562</v>
+        <v>0.7680816054208173</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8186255716688974</v>
+        <v>0.8208426077172566</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>128935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107254</v>
+        <v>106348</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>155748</v>
+        <v>155684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2099165953454205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1746191669157879</v>
+        <v>0.1731435088923788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2535706800691375</v>
+        <v>0.2534677787723881</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -1484,19 +1484,19 @@
         <v>93716</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78852</v>
+        <v>78394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108692</v>
+        <v>108898</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1980378970893332</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1666292102102583</v>
+        <v>0.165660065289502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2296846577683409</v>
+        <v>0.2301211988278048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>221</v>
@@ -1505,19 +1505,19 @@
         <v>222650</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197233</v>
+        <v>194823</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>254272</v>
+        <v>252197</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2047473393890485</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1813744283311026</v>
+        <v>0.1791573922827435</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.233826715329944</v>
+        <v>0.231918394579183</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>263940</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>245271</v>
+        <v>245733</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>276575</v>
+        <v>276625</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8620784923513384</v>
+        <v>0.8620784923513383</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8011005236604233</v>
+        <v>0.8026111687328248</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9033469766992672</v>
+        <v>0.9035092447774071</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>363</v>
@@ -1630,19 +1630,19 @@
         <v>259988</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>246648</v>
+        <v>247263</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>270570</v>
+        <v>270916</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8495704943123452</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8059797971351205</v>
+        <v>0.8079883820982909</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8841479050970685</v>
+        <v>0.8852795069679591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>580</v>
@@ -1651,19 +1651,19 @@
         <v>523928</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>504434</v>
+        <v>502858</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>541198</v>
+        <v>541153</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8558259599844215</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8239819520842538</v>
+        <v>0.8214082219469331</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8840352019645941</v>
+        <v>0.8839617026722155</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>42227</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29592</v>
+        <v>29542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60896</v>
+        <v>60434</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1379215076486617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09665302330073269</v>
+        <v>0.09649075522259293</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1988994763395769</v>
+        <v>0.197388831267175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -1701,19 +1701,19 @@
         <v>46035</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35453</v>
+        <v>35107</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59375</v>
+        <v>58760</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1504295056876548</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1158520949029312</v>
+        <v>0.1147204930320409</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1940202028648794</v>
+        <v>0.1920116179017094</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>91</v>
@@ -1722,19 +1722,19 @@
         <v>88262</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70992</v>
+        <v>71037</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>107756</v>
+        <v>109332</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1441740400155785</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1159647980354058</v>
+        <v>0.1160382973277848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1760180479157461</v>
+        <v>0.1785917780530669</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>1598916</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1565129</v>
+        <v>1562200</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1635976</v>
+        <v>1634222</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8517982582517378</v>
+        <v>0.8517982582517379</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8337989763713166</v>
+        <v>0.8322386131490039</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8715414512540901</v>
+        <v>0.8706070232049624</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1681</v>
@@ -1847,19 +1847,19 @@
         <v>1247726</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1222041</v>
+        <v>1225432</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1271063</v>
+        <v>1272502</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8518439004937614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8343077317218024</v>
+        <v>0.8366234208236025</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8677761846871261</v>
+        <v>0.8687588337860209</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3067</v>
@@ -1868,19 +1868,19 @@
         <v>2846642</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2800803</v>
+        <v>2801937</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2889273</v>
+        <v>2890194</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8518182633368416</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8381015378807362</v>
+        <v>0.8384408075294236</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8645749250762994</v>
+        <v>0.8648506284033214</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>278190</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>241130</v>
+        <v>242884</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>311977</v>
+        <v>314906</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1482017417482621</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.12845854874591</v>
+        <v>0.1293929767950377</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1662010236286834</v>
+        <v>0.167761386850996</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>278</v>
@@ -1918,19 +1918,19 @@
         <v>217010</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>193673</v>
+        <v>192234</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>242695</v>
+        <v>239304</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1481560995062387</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1322238153128741</v>
+        <v>0.1312411662139789</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1656922682781976</v>
+        <v>0.1633765791763973</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>508</v>
@@ -1939,19 +1939,19 @@
         <v>495200</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>452569</v>
+        <v>451648</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>541039</v>
+        <v>539905</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1481817366631584</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1354250749237005</v>
+        <v>0.1351493715966789</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1618984621192639</v>
+        <v>0.1615591924705764</v>
       </c>
     </row>
     <row r="21">
